--- a/biology/Botanique/Cyprès_du_Maroc/Cyprès_du_Maroc.xlsx
+++ b/biology/Botanique/Cyprès_du_Maroc/Cyprès_du_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Maroc</t>
+          <t>Cyprès_du_Maroc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus atlantica
 Le cyprès du Maroc, ou cyprès de l'Atlas, est un arbre de la famille des Cupressaceae, originaire du Maroc.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Maroc</t>
+          <t>Cyprès_du_Maroc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès du Maroc est une espèce rare, endémique du sud de Maroc, que l'on trouve dans la vallée de l'oued N'Fiss dans les montagnes du Haut Atlas marocain au sud de Marrakech dans l'ouest du Maroc. La majorité des individus sont anciens, avec très peu de régénération naturelle, notamment à cause du surpâturage par les chèvres.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Maroc</t>
+          <t>Cyprès_du_Maroc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est considérée, selon les auteurs :
 soit comme une espèce distincte (Cupressus atlantica Gaussen),
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Maroc</t>
+          <t>Cyprès_du_Maroc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se distingue de l'espèce parente Cupressus sempervirens (le cyprès commun) par la couleur de son feuillage beaucoup plus bleu, avec une tache blanche de résine sur chaque feuille, et des rameaux plus courts, souvent aplatis dans un seul plan.
 Elle porte également des cônes plus petits, de 1,5 à 2,5 cm de long.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Maroc</t>
+          <t>Cyprès_du_Maroc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de cyprès du Maroc est utilisé généralement comme bois de chauffage, mais également comme bois de construction (portes, fenêtres, charpentes, etc.). Le feuillage est aussi utilisé comme fourrage pour le cheptel constitué principalement de caprins[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de cyprès du Maroc est utilisé généralement comme bois de chauffage, mais également comme bois de construction (portes, fenêtres, charpentes, etc.). Le feuillage est aussi utilisé comme fourrage pour le cheptel constitué principalement de caprins.
 </t>
         </is>
       </c>
